--- a/E. 확증적 데이터 분석(CDA)/02. 가설검정/data/연습문제2-wrestler_diet.xlsx
+++ b/E. 확증적 데이터 분석(CDA)/02. 가설검정/data/연습문제2-wrestler_diet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>B.S</t>
   </si>
@@ -78,14 +78,6 @@
   </si>
   <si>
     <t>감량후 턱걸이</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>감량전 100m 달리기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>감량후 100m 달리기</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -448,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -594,55 +586,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="hair">
@@ -679,19 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -821,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,22 +792,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="6" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1194,68 +1131,55 @@
     <col min="2" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>43</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>41</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>35</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>41</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>25</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>29</v>
       </c>
-      <c r="H2" s="8">
-        <v>14.5</v>
-      </c>
-      <c r="I2" s="9">
-        <v>14.5</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1277,14 +1201,8 @@
       <c r="G3" s="2">
         <v>29</v>
       </c>
-      <c r="H3" s="2">
-        <v>13.4</v>
-      </c>
-      <c r="I3" s="3">
-        <v>13.4</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1306,14 +1224,8 @@
       <c r="G4" s="2">
         <v>23</v>
       </c>
-      <c r="H4" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="I4" s="3">
-        <v>13.5</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1335,14 +1247,8 @@
       <c r="G5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="I5" s="3">
-        <v>13.9</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1364,14 +1270,8 @@
       <c r="G6" s="2">
         <v>19</v>
       </c>
-      <c r="H6" s="2">
-        <v>13.4</v>
-      </c>
-      <c r="I6" s="3">
-        <v>13.4</v>
-      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1393,14 +1293,8 @@
       <c r="G7" s="2">
         <v>19</v>
       </c>
-      <c r="H7" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="I7" s="3">
-        <v>13.9</v>
-      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1422,14 +1316,8 @@
       <c r="G8" s="2">
         <v>26</v>
       </c>
-      <c r="H8" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="I8" s="3">
-        <v>13.6</v>
-      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1451,14 +1339,8 @@
       <c r="G9" s="2">
         <v>18</v>
       </c>
-      <c r="H9" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="I9" s="3">
-        <v>13.9</v>
-      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1480,14 +1362,8 @@
       <c r="G10" s="2">
         <v>20</v>
       </c>
-      <c r="H10" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>13.1</v>
-      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1509,14 +1385,8 @@
       <c r="G11" s="2">
         <v>25</v>
       </c>
-      <c r="H11" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="I11" s="3">
-        <v>13.8</v>
-      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1538,40 +1408,28 @@
       <c r="G12" s="2">
         <v>35</v>
       </c>
-      <c r="H12" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="I12" s="3">
-        <v>13.7</v>
-      </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>43</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>41</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>33</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>37</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>15</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>22</v>
-      </c>
-      <c r="H13" s="5">
-        <v>14.9</v>
-      </c>
-      <c r="I13" s="6">
-        <v>14.9</v>
       </c>
     </row>
   </sheetData>
